--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_300.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_300.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32655-d235456-Reviews-Good_Nite_Inn_Sylmar-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>333</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>357</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Good-Nite-Inn-Sylmar.h546515.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_300.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_300.xlsx
@@ -5615,7 +5615,7 @@
         <v>25214</v>
       </c>
       <c r="B2" t="n">
-        <v>149483</v>
+        <v>180973</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -5680,7 +5680,7 @@
         <v>25214</v>
       </c>
       <c r="B3" t="n">
-        <v>149484</v>
+        <v>180974</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -5745,7 +5745,7 @@
         <v>25214</v>
       </c>
       <c r="B4" t="n">
-        <v>149485</v>
+        <v>180975</v>
       </c>
       <c r="C4" t="s">
         <v>65</v>
@@ -5810,7 +5810,7 @@
         <v>25214</v>
       </c>
       <c r="B5" t="n">
-        <v>149486</v>
+        <v>180976</v>
       </c>
       <c r="C5" t="s">
         <v>73</v>
@@ -5875,7 +5875,7 @@
         <v>25214</v>
       </c>
       <c r="B6" t="n">
-        <v>149487</v>
+        <v>180977</v>
       </c>
       <c r="C6" t="s">
         <v>82</v>
@@ -5940,7 +5940,7 @@
         <v>25214</v>
       </c>
       <c r="B7" t="n">
-        <v>149488</v>
+        <v>180978</v>
       </c>
       <c r="C7" t="s">
         <v>90</v>
@@ -6005,7 +6005,7 @@
         <v>25214</v>
       </c>
       <c r="B8" t="n">
-        <v>149489</v>
+        <v>180979</v>
       </c>
       <c r="C8" t="s">
         <v>98</v>
@@ -6074,7 +6074,7 @@
         <v>25214</v>
       </c>
       <c r="B9" t="n">
-        <v>149490</v>
+        <v>180980</v>
       </c>
       <c r="C9" t="s">
         <v>107</v>
@@ -6139,7 +6139,7 @@
         <v>25214</v>
       </c>
       <c r="B10" t="n">
-        <v>149491</v>
+        <v>149482</v>
       </c>
       <c r="C10" t="s">
         <v>115</v>
@@ -6204,7 +6204,7 @@
         <v>25214</v>
       </c>
       <c r="B11" t="n">
-        <v>149492</v>
+        <v>180981</v>
       </c>
       <c r="C11" t="s">
         <v>125</v>
@@ -6275,7 +6275,7 @@
         <v>25214</v>
       </c>
       <c r="B12" t="n">
-        <v>149493</v>
+        <v>180982</v>
       </c>
       <c r="C12" t="s">
         <v>132</v>
@@ -6340,7 +6340,7 @@
         <v>25214</v>
       </c>
       <c r="B13" t="n">
-        <v>149494</v>
+        <v>180983</v>
       </c>
       <c r="C13" t="s">
         <v>141</v>
@@ -6405,7 +6405,7 @@
         <v>25214</v>
       </c>
       <c r="B14" t="n">
-        <v>149495</v>
+        <v>180984</v>
       </c>
       <c r="C14" t="s">
         <v>148</v>
@@ -6470,7 +6470,7 @@
         <v>25214</v>
       </c>
       <c r="B15" t="n">
-        <v>149496</v>
+        <v>180985</v>
       </c>
       <c r="C15" t="s">
         <v>158</v>
@@ -6535,7 +6535,7 @@
         <v>25214</v>
       </c>
       <c r="B16" t="n">
-        <v>149497</v>
+        <v>180986</v>
       </c>
       <c r="C16" t="s">
         <v>166</v>
@@ -6600,7 +6600,7 @@
         <v>25214</v>
       </c>
       <c r="B17" t="n">
-        <v>149498</v>
+        <v>180987</v>
       </c>
       <c r="C17" t="s">
         <v>174</v>
@@ -6665,7 +6665,7 @@
         <v>25214</v>
       </c>
       <c r="B18" t="n">
-        <v>149499</v>
+        <v>180988</v>
       </c>
       <c r="C18" t="s">
         <v>184</v>
@@ -6726,7 +6726,7 @@
         <v>25214</v>
       </c>
       <c r="B19" t="n">
-        <v>149500</v>
+        <v>180989</v>
       </c>
       <c r="C19" t="s">
         <v>191</v>
@@ -6791,7 +6791,7 @@
         <v>25214</v>
       </c>
       <c r="B20" t="n">
-        <v>149490</v>
+        <v>149482</v>
       </c>
       <c r="C20" t="s">
         <v>115</v>
@@ -6856,7 +6856,7 @@
         <v>25214</v>
       </c>
       <c r="B21" t="n">
-        <v>149501</v>
+        <v>180990</v>
       </c>
       <c r="C21" t="s">
         <v>206</v>
@@ -6927,7 +6927,7 @@
         <v>25214</v>
       </c>
       <c r="B22" t="n">
-        <v>149502</v>
+        <v>180991</v>
       </c>
       <c r="C22" t="s">
         <v>213</v>
@@ -6992,7 +6992,7 @@
         <v>25214</v>
       </c>
       <c r="B23" t="n">
-        <v>149503</v>
+        <v>180992</v>
       </c>
       <c r="C23" t="s">
         <v>220</v>
@@ -7057,7 +7057,7 @@
         <v>25214</v>
       </c>
       <c r="B24" t="n">
-        <v>149504</v>
+        <v>180993</v>
       </c>
       <c r="C24" t="s">
         <v>228</v>
@@ -7122,7 +7122,7 @@
         <v>25214</v>
       </c>
       <c r="B25" t="n">
-        <v>149505</v>
+        <v>180994</v>
       </c>
       <c r="C25" t="s">
         <v>233</v>
@@ -7187,7 +7187,7 @@
         <v>25214</v>
       </c>
       <c r="B26" t="n">
-        <v>149506</v>
+        <v>180995</v>
       </c>
       <c r="C26" t="s">
         <v>239</v>
@@ -7252,7 +7252,7 @@
         <v>25214</v>
       </c>
       <c r="B27" t="n">
-        <v>149507</v>
+        <v>180996</v>
       </c>
       <c r="C27" t="s">
         <v>248</v>
@@ -7317,7 +7317,7 @@
         <v>25214</v>
       </c>
       <c r="B28" t="n">
-        <v>149508</v>
+        <v>180997</v>
       </c>
       <c r="C28" t="s">
         <v>255</v>
@@ -7382,7 +7382,7 @@
         <v>25214</v>
       </c>
       <c r="B29" t="n">
-        <v>149509</v>
+        <v>180998</v>
       </c>
       <c r="C29" t="s">
         <v>262</v>
@@ -7512,7 +7512,7 @@
         <v>25214</v>
       </c>
       <c r="B31" t="n">
-        <v>149510</v>
+        <v>180999</v>
       </c>
       <c r="C31" t="s">
         <v>280</v>
@@ -7577,7 +7577,7 @@
         <v>25214</v>
       </c>
       <c r="B32" t="n">
-        <v>149511</v>
+        <v>181000</v>
       </c>
       <c r="C32" t="s">
         <v>287</v>
@@ -7642,7 +7642,7 @@
         <v>25214</v>
       </c>
       <c r="B33" t="n">
-        <v>149512</v>
+        <v>181001</v>
       </c>
       <c r="C33" t="s">
         <v>297</v>
@@ -7707,7 +7707,7 @@
         <v>25214</v>
       </c>
       <c r="B34" t="n">
-        <v>149513</v>
+        <v>181002</v>
       </c>
       <c r="C34" t="s">
         <v>306</v>
@@ -7772,7 +7772,7 @@
         <v>25214</v>
       </c>
       <c r="B35" t="n">
-        <v>149514</v>
+        <v>181003</v>
       </c>
       <c r="C35" t="s">
         <v>315</v>
@@ -7837,7 +7837,7 @@
         <v>25214</v>
       </c>
       <c r="B36" t="n">
-        <v>149515</v>
+        <v>181004</v>
       </c>
       <c r="C36" t="s">
         <v>325</v>
@@ -7902,7 +7902,7 @@
         <v>25214</v>
       </c>
       <c r="B37" t="n">
-        <v>149516</v>
+        <v>181005</v>
       </c>
       <c r="C37" t="s">
         <v>332</v>
@@ -7967,7 +7967,7 @@
         <v>25214</v>
       </c>
       <c r="B38" t="n">
-        <v>149517</v>
+        <v>181006</v>
       </c>
       <c r="C38" t="s">
         <v>342</v>
@@ -8028,7 +8028,7 @@
         <v>25214</v>
       </c>
       <c r="B39" t="n">
-        <v>149518</v>
+        <v>181007</v>
       </c>
       <c r="C39" t="s">
         <v>351</v>
@@ -8158,7 +8158,7 @@
         <v>25214</v>
       </c>
       <c r="B41" t="n">
-        <v>149519</v>
+        <v>181008</v>
       </c>
       <c r="C41" t="s">
         <v>367</v>
@@ -8223,7 +8223,7 @@
         <v>25214</v>
       </c>
       <c r="B42" t="n">
-        <v>149520</v>
+        <v>181009</v>
       </c>
       <c r="C42" t="s">
         <v>376</v>
@@ -8359,7 +8359,7 @@
         <v>25214</v>
       </c>
       <c r="B44" t="n">
-        <v>149521</v>
+        <v>181010</v>
       </c>
       <c r="C44" t="s">
         <v>390</v>
@@ -8430,7 +8430,7 @@
         <v>25214</v>
       </c>
       <c r="B45" t="n">
-        <v>149522</v>
+        <v>181011</v>
       </c>
       <c r="C45" t="s">
         <v>397</v>
@@ -8495,7 +8495,7 @@
         <v>25214</v>
       </c>
       <c r="B46" t="n">
-        <v>149523</v>
+        <v>181012</v>
       </c>
       <c r="C46" t="s">
         <v>405</v>
@@ -8633,7 +8633,7 @@
         <v>25214</v>
       </c>
       <c r="B48" t="n">
-        <v>149524</v>
+        <v>181013</v>
       </c>
       <c r="C48" t="s">
         <v>421</v>
@@ -8694,7 +8694,7 @@
         <v>25214</v>
       </c>
       <c r="B49" t="n">
-        <v>149525</v>
+        <v>181014</v>
       </c>
       <c r="C49" t="s">
         <v>427</v>
@@ -8755,7 +8755,7 @@
         <v>25214</v>
       </c>
       <c r="B50" t="n">
-        <v>149526</v>
+        <v>181015</v>
       </c>
       <c r="C50" t="s">
         <v>434</v>
@@ -8824,7 +8824,7 @@
         <v>25214</v>
       </c>
       <c r="B51" t="n">
-        <v>149490</v>
+        <v>149482</v>
       </c>
       <c r="C51" t="s">
         <v>115</v>
@@ -8889,7 +8889,7 @@
         <v>25214</v>
       </c>
       <c r="B52" t="n">
-        <v>149527</v>
+        <v>181016</v>
       </c>
       <c r="C52" t="s">
         <v>451</v>
@@ -8954,7 +8954,7 @@
         <v>25214</v>
       </c>
       <c r="B53" t="n">
-        <v>149528</v>
+        <v>181017</v>
       </c>
       <c r="C53" t="s">
         <v>458</v>
@@ -9019,7 +9019,7 @@
         <v>25214</v>
       </c>
       <c r="B54" t="n">
-        <v>149529</v>
+        <v>181018</v>
       </c>
       <c r="C54" t="s">
         <v>468</v>
@@ -9090,7 +9090,7 @@
         <v>25214</v>
       </c>
       <c r="B55" t="n">
-        <v>149530</v>
+        <v>181019</v>
       </c>
       <c r="C55" t="s">
         <v>476</v>
@@ -9155,7 +9155,7 @@
         <v>25214</v>
       </c>
       <c r="B56" t="n">
-        <v>149531</v>
+        <v>181020</v>
       </c>
       <c r="C56" t="s">
         <v>483</v>
@@ -9226,7 +9226,7 @@
         <v>25214</v>
       </c>
       <c r="B57" t="n">
-        <v>149532</v>
+        <v>181021</v>
       </c>
       <c r="C57" t="s">
         <v>490</v>
@@ -9295,7 +9295,7 @@
         <v>25214</v>
       </c>
       <c r="B58" t="n">
-        <v>149533</v>
+        <v>181022</v>
       </c>
       <c r="C58" t="s">
         <v>500</v>
@@ -9364,7 +9364,7 @@
         <v>25214</v>
       </c>
       <c r="B59" t="n">
-        <v>149534</v>
+        <v>181023</v>
       </c>
       <c r="C59" t="s">
         <v>507</v>
@@ -9425,7 +9425,7 @@
         <v>25214</v>
       </c>
       <c r="B60" t="n">
-        <v>149535</v>
+        <v>181024</v>
       </c>
       <c r="C60" t="s">
         <v>514</v>
@@ -9492,7 +9492,7 @@
         <v>25214</v>
       </c>
       <c r="B61" t="n">
-        <v>149536</v>
+        <v>181025</v>
       </c>
       <c r="C61" t="s">
         <v>521</v>
@@ -9620,7 +9620,7 @@
         <v>25214</v>
       </c>
       <c r="B63" t="n">
-        <v>149537</v>
+        <v>181026</v>
       </c>
       <c r="C63" t="s">
         <v>536</v>
@@ -9685,7 +9685,7 @@
         <v>25214</v>
       </c>
       <c r="B64" t="n">
-        <v>149538</v>
+        <v>181027</v>
       </c>
       <c r="C64" t="s">
         <v>543</v>
@@ -9754,7 +9754,7 @@
         <v>25214</v>
       </c>
       <c r="B65" t="n">
-        <v>149539</v>
+        <v>181028</v>
       </c>
       <c r="C65" t="s">
         <v>553</v>
@@ -9825,7 +9825,7 @@
         <v>25214</v>
       </c>
       <c r="B66" t="n">
-        <v>149540</v>
+        <v>181029</v>
       </c>
       <c r="C66" t="s">
         <v>560</v>
@@ -9890,7 +9890,7 @@
         <v>25214</v>
       </c>
       <c r="B67" t="n">
-        <v>149541</v>
+        <v>181030</v>
       </c>
       <c r="C67" t="s">
         <v>567</v>
@@ -9961,7 +9961,7 @@
         <v>25214</v>
       </c>
       <c r="B68" t="n">
-        <v>149542</v>
+        <v>181031</v>
       </c>
       <c r="C68" t="s">
         <v>577</v>
@@ -10022,7 +10022,7 @@
         <v>25214</v>
       </c>
       <c r="B69" t="n">
-        <v>149543</v>
+        <v>181032</v>
       </c>
       <c r="C69" t="s">
         <v>584</v>
@@ -10097,7 +10097,7 @@
         <v>25214</v>
       </c>
       <c r="B70" t="n">
-        <v>149544</v>
+        <v>181033</v>
       </c>
       <c r="C70" t="s">
         <v>593</v>
@@ -10172,7 +10172,7 @@
         <v>25214</v>
       </c>
       <c r="B71" t="n">
-        <v>149545</v>
+        <v>181034</v>
       </c>
       <c r="C71" t="s">
         <v>602</v>
@@ -10247,7 +10247,7 @@
         <v>25214</v>
       </c>
       <c r="B72" t="n">
-        <v>149546</v>
+        <v>181035</v>
       </c>
       <c r="C72" t="s">
         <v>612</v>
@@ -10312,7 +10312,7 @@
         <v>25214</v>
       </c>
       <c r="B73" t="n">
-        <v>149547</v>
+        <v>181036</v>
       </c>
       <c r="C73" t="s">
         <v>620</v>
@@ -10387,7 +10387,7 @@
         <v>25214</v>
       </c>
       <c r="B74" t="n">
-        <v>149548</v>
+        <v>181037</v>
       </c>
       <c r="C74" t="s">
         <v>626</v>
@@ -10458,7 +10458,7 @@
         <v>25214</v>
       </c>
       <c r="B75" t="n">
-        <v>149549</v>
+        <v>181038</v>
       </c>
       <c r="C75" t="s">
         <v>636</v>
@@ -10533,7 +10533,7 @@
         <v>25214</v>
       </c>
       <c r="B76" t="n">
-        <v>149550</v>
+        <v>181039</v>
       </c>
       <c r="C76" t="s">
         <v>643</v>
@@ -10598,7 +10598,7 @@
         <v>25214</v>
       </c>
       <c r="B77" t="n">
-        <v>149551</v>
+        <v>181040</v>
       </c>
       <c r="C77" t="s">
         <v>652</v>
@@ -10673,7 +10673,7 @@
         <v>25214</v>
       </c>
       <c r="B78" t="n">
-        <v>149552</v>
+        <v>181041</v>
       </c>
       <c r="C78" t="s">
         <v>662</v>
@@ -10748,7 +10748,7 @@
         <v>25214</v>
       </c>
       <c r="B79" t="n">
-        <v>149553</v>
+        <v>181042</v>
       </c>
       <c r="C79" t="s">
         <v>671</v>
@@ -10888,7 +10888,7 @@
         <v>25214</v>
       </c>
       <c r="B81" t="n">
-        <v>149554</v>
+        <v>181043</v>
       </c>
       <c r="C81" t="s">
         <v>690</v>
@@ -11022,7 +11022,7 @@
         <v>25214</v>
       </c>
       <c r="B83" t="n">
-        <v>149555</v>
+        <v>181044</v>
       </c>
       <c r="C83" t="s">
         <v>706</v>
@@ -11097,7 +11097,7 @@
         <v>25214</v>
       </c>
       <c r="B84" t="n">
-        <v>149556</v>
+        <v>181045</v>
       </c>
       <c r="C84" t="s">
         <v>713</v>
@@ -11172,7 +11172,7 @@
         <v>25214</v>
       </c>
       <c r="B85" t="n">
-        <v>149557</v>
+        <v>181046</v>
       </c>
       <c r="C85" t="s">
         <v>721</v>
@@ -11312,7 +11312,7 @@
         <v>25214</v>
       </c>
       <c r="B87" t="n">
-        <v>149558</v>
+        <v>181047</v>
       </c>
       <c r="C87" t="s">
         <v>738</v>
@@ -11381,7 +11381,7 @@
         <v>25214</v>
       </c>
       <c r="B88" t="n">
-        <v>149559</v>
+        <v>181048</v>
       </c>
       <c r="C88" t="s">
         <v>748</v>
@@ -11446,7 +11446,7 @@
         <v>25214</v>
       </c>
       <c r="B89" t="n">
-        <v>149560</v>
+        <v>181049</v>
       </c>
       <c r="C89" t="s">
         <v>755</v>
@@ -11515,7 +11515,7 @@
         <v>25214</v>
       </c>
       <c r="B90" t="n">
-        <v>149561</v>
+        <v>181050</v>
       </c>
       <c r="C90" t="s">
         <v>764</v>
@@ -11580,7 +11580,7 @@
         <v>25214</v>
       </c>
       <c r="B91" t="n">
-        <v>149562</v>
+        <v>181051</v>
       </c>
       <c r="C91" t="s">
         <v>773</v>
@@ -11651,7 +11651,7 @@
         <v>25214</v>
       </c>
       <c r="B92" t="n">
-        <v>149563</v>
+        <v>181052</v>
       </c>
       <c r="C92" t="s">
         <v>783</v>
@@ -11722,7 +11722,7 @@
         <v>25214</v>
       </c>
       <c r="B93" t="n">
-        <v>149564</v>
+        <v>181053</v>
       </c>
       <c r="C93" t="s">
         <v>792</v>
@@ -11791,7 +11791,7 @@
         <v>25214</v>
       </c>
       <c r="B94" t="n">
-        <v>149565</v>
+        <v>149492</v>
       </c>
       <c r="C94" t="s">
         <v>802</v>
@@ -11862,7 +11862,7 @@
         <v>25214</v>
       </c>
       <c r="B95" t="n">
-        <v>149566</v>
+        <v>181054</v>
       </c>
       <c r="C95" t="s">
         <v>809</v>
@@ -11931,7 +11931,7 @@
         <v>25214</v>
       </c>
       <c r="B96" t="n">
-        <v>149564</v>
+        <v>149492</v>
       </c>
       <c r="C96" t="s">
         <v>802</v>
@@ -12002,7 +12002,7 @@
         <v>25214</v>
       </c>
       <c r="B97" t="n">
-        <v>149567</v>
+        <v>181055</v>
       </c>
       <c r="C97" t="s">
         <v>825</v>
@@ -12073,7 +12073,7 @@
         <v>25214</v>
       </c>
       <c r="B98" t="n">
-        <v>149568</v>
+        <v>181056</v>
       </c>
       <c r="C98" t="s">
         <v>833</v>
@@ -12142,7 +12142,7 @@
         <v>25214</v>
       </c>
       <c r="B99" t="n">
-        <v>149569</v>
+        <v>181057</v>
       </c>
       <c r="C99" t="s">
         <v>842</v>
@@ -12211,7 +12211,7 @@
         <v>25214</v>
       </c>
       <c r="B100" t="n">
-        <v>149570</v>
+        <v>181058</v>
       </c>
       <c r="C100" t="s">
         <v>850</v>
@@ -12282,7 +12282,7 @@
         <v>25214</v>
       </c>
       <c r="B101" t="n">
-        <v>149571</v>
+        <v>181059</v>
       </c>
       <c r="C101" t="s">
         <v>857</v>
@@ -12353,7 +12353,7 @@
         <v>25214</v>
       </c>
       <c r="B102" t="n">
-        <v>149572</v>
+        <v>181060</v>
       </c>
       <c r="C102" t="s">
         <v>866</v>
@@ -12493,7 +12493,7 @@
         <v>25214</v>
       </c>
       <c r="B104" t="n">
-        <v>149573</v>
+        <v>181061</v>
       </c>
       <c r="C104" t="s">
         <v>884</v>
@@ -12564,7 +12564,7 @@
         <v>25214</v>
       </c>
       <c r="B105" t="n">
-        <v>149574</v>
+        <v>181062</v>
       </c>
       <c r="C105" t="s">
         <v>891</v>
@@ -12633,7 +12633,7 @@
         <v>25214</v>
       </c>
       <c r="B106" t="n">
-        <v>149575</v>
+        <v>181063</v>
       </c>
       <c r="C106" t="s">
         <v>898</v>
@@ -12708,7 +12708,7 @@
         <v>25214</v>
       </c>
       <c r="B107" t="n">
-        <v>149576</v>
+        <v>181064</v>
       </c>
       <c r="C107" t="s">
         <v>905</v>
@@ -12779,7 +12779,7 @@
         <v>25214</v>
       </c>
       <c r="B108" t="n">
-        <v>149577</v>
+        <v>181065</v>
       </c>
       <c r="C108" t="s">
         <v>912</v>
@@ -12854,7 +12854,7 @@
         <v>25214</v>
       </c>
       <c r="B109" t="n">
-        <v>149578</v>
+        <v>181066</v>
       </c>
       <c r="C109" t="s">
         <v>918</v>
@@ -12919,7 +12919,7 @@
         <v>25214</v>
       </c>
       <c r="B110" t="n">
-        <v>149579</v>
+        <v>181067</v>
       </c>
       <c r="C110" t="s">
         <v>926</v>
@@ -13065,7 +13065,7 @@
         <v>25214</v>
       </c>
       <c r="B112" t="n">
-        <v>149580</v>
+        <v>181068</v>
       </c>
       <c r="C112" t="s">
         <v>942</v>
@@ -13201,7 +13201,7 @@
         <v>25214</v>
       </c>
       <c r="B114" t="n">
-        <v>149581</v>
+        <v>181069</v>
       </c>
       <c r="C114" t="s">
         <v>958</v>
@@ -13272,7 +13272,7 @@
         <v>25214</v>
       </c>
       <c r="B115" t="n">
-        <v>149582</v>
+        <v>181070</v>
       </c>
       <c r="C115" t="s">
         <v>965</v>
@@ -13345,7 +13345,7 @@
         <v>25214</v>
       </c>
       <c r="B116" t="n">
-        <v>149583</v>
+        <v>181071</v>
       </c>
       <c r="C116" t="s">
         <v>973</v>
@@ -13416,7 +13416,7 @@
         <v>25214</v>
       </c>
       <c r="B117" t="n">
-        <v>149584</v>
+        <v>181072</v>
       </c>
       <c r="C117" t="s">
         <v>980</v>
@@ -13566,7 +13566,7 @@
         <v>25214</v>
       </c>
       <c r="B119" t="n">
-        <v>149585</v>
+        <v>181073</v>
       </c>
       <c r="C119" t="s">
         <v>995</v>
@@ -13639,7 +13639,7 @@
         <v>25214</v>
       </c>
       <c r="B120" t="n">
-        <v>149586</v>
+        <v>181074</v>
       </c>
       <c r="C120" t="s">
         <v>1004</v>
@@ -13789,7 +13789,7 @@
         <v>25214</v>
       </c>
       <c r="B122" t="n">
-        <v>149587</v>
+        <v>181075</v>
       </c>
       <c r="C122" t="s">
         <v>1022</v>
@@ -13925,7 +13925,7 @@
         <v>25214</v>
       </c>
       <c r="B124" t="n">
-        <v>149588</v>
+        <v>181076</v>
       </c>
       <c r="C124" t="s">
         <v>1039</v>
@@ -13996,7 +13996,7 @@
         <v>25214</v>
       </c>
       <c r="B125" t="n">
-        <v>149589</v>
+        <v>181077</v>
       </c>
       <c r="C125" t="s">
         <v>1048</v>
@@ -14067,7 +14067,7 @@
         <v>25214</v>
       </c>
       <c r="B126" t="n">
-        <v>149590</v>
+        <v>181078</v>
       </c>
       <c r="C126" t="s">
         <v>1056</v>
@@ -14142,7 +14142,7 @@
         <v>25214</v>
       </c>
       <c r="B127" t="n">
-        <v>149591</v>
+        <v>181079</v>
       </c>
       <c r="C127" t="s">
         <v>1063</v>
@@ -14217,7 +14217,7 @@
         <v>25214</v>
       </c>
       <c r="B128" t="n">
-        <v>149592</v>
+        <v>181080</v>
       </c>
       <c r="C128" t="s">
         <v>1070</v>
@@ -14288,7 +14288,7 @@
         <v>25214</v>
       </c>
       <c r="B129" t="n">
-        <v>149593</v>
+        <v>181081</v>
       </c>
       <c r="C129" t="s">
         <v>1078</v>
@@ -14363,7 +14363,7 @@
         <v>25214</v>
       </c>
       <c r="B130" t="n">
-        <v>149594</v>
+        <v>181082</v>
       </c>
       <c r="C130" t="s">
         <v>1086</v>
@@ -14513,7 +14513,7 @@
         <v>25214</v>
       </c>
       <c r="B132" t="n">
-        <v>149595</v>
+        <v>181083</v>
       </c>
       <c r="C132" t="s">
         <v>1102</v>
@@ -14584,7 +14584,7 @@
         <v>25214</v>
       </c>
       <c r="B133" t="n">
-        <v>149596</v>
+        <v>181084</v>
       </c>
       <c r="C133" t="s">
         <v>1109</v>
@@ -14659,7 +14659,7 @@
         <v>25214</v>
       </c>
       <c r="B134" t="n">
-        <v>149597</v>
+        <v>181085</v>
       </c>
       <c r="C134" t="s">
         <v>1119</v>
@@ -14734,7 +14734,7 @@
         <v>25214</v>
       </c>
       <c r="B135" t="n">
-        <v>149598</v>
+        <v>181086</v>
       </c>
       <c r="C135" t="s">
         <v>1129</v>
@@ -14805,7 +14805,7 @@
         <v>25214</v>
       </c>
       <c r="B136" t="n">
-        <v>149599</v>
+        <v>181087</v>
       </c>
       <c r="C136" t="s">
         <v>1136</v>
@@ -14880,7 +14880,7 @@
         <v>25214</v>
       </c>
       <c r="B137" t="n">
-        <v>149600</v>
+        <v>181088</v>
       </c>
       <c r="C137" t="s">
         <v>1143</v>
@@ -14955,7 +14955,7 @@
         <v>25214</v>
       </c>
       <c r="B138" t="n">
-        <v>149601</v>
+        <v>181089</v>
       </c>
       <c r="C138" t="s">
         <v>1153</v>
@@ -15105,7 +15105,7 @@
         <v>25214</v>
       </c>
       <c r="B140" t="n">
-        <v>149602</v>
+        <v>181090</v>
       </c>
       <c r="C140" t="s">
         <v>1167</v>
@@ -15255,7 +15255,7 @@
         <v>25214</v>
       </c>
       <c r="B142" t="n">
-        <v>149603</v>
+        <v>181091</v>
       </c>
       <c r="C142" t="s">
         <v>1185</v>
@@ -15330,7 +15330,7 @@
         <v>25214</v>
       </c>
       <c r="B143" t="n">
-        <v>149604</v>
+        <v>181092</v>
       </c>
       <c r="C143" t="s">
         <v>1192</v>
@@ -15405,7 +15405,7 @@
         <v>25214</v>
       </c>
       <c r="B144" t="n">
-        <v>149605</v>
+        <v>181093</v>
       </c>
       <c r="C144" t="s">
         <v>1202</v>
@@ -15555,7 +15555,7 @@
         <v>25214</v>
       </c>
       <c r="B146" t="n">
-        <v>149606</v>
+        <v>181094</v>
       </c>
       <c r="C146" t="s">
         <v>1218</v>
@@ -15701,7 +15701,7 @@
         <v>25214</v>
       </c>
       <c r="B148" t="n">
-        <v>149607</v>
+        <v>181095</v>
       </c>
       <c r="C148" t="s">
         <v>1235</v>
@@ -15851,7 +15851,7 @@
         <v>25214</v>
       </c>
       <c r="B150" t="n">
-        <v>149608</v>
+        <v>181096</v>
       </c>
       <c r="C150" t="s">
         <v>1252</v>
@@ -15924,7 +15924,7 @@
         <v>25214</v>
       </c>
       <c r="B151" t="n">
-        <v>149609</v>
+        <v>181097</v>
       </c>
       <c r="C151" t="s">
         <v>1260</v>
@@ -16149,7 +16149,7 @@
         <v>25214</v>
       </c>
       <c r="B154" t="n">
-        <v>149610</v>
+        <v>181098</v>
       </c>
       <c r="C154" t="s">
         <v>1284</v>
@@ -16224,7 +16224,7 @@
         <v>25214</v>
       </c>
       <c r="B155" t="n">
-        <v>149611</v>
+        <v>181099</v>
       </c>
       <c r="C155" t="s">
         <v>1292</v>
@@ -16299,7 +16299,7 @@
         <v>25214</v>
       </c>
       <c r="B156" t="n">
-        <v>149612</v>
+        <v>181100</v>
       </c>
       <c r="C156" t="s">
         <v>1300</v>
@@ -16445,7 +16445,7 @@
         <v>25214</v>
       </c>
       <c r="B158" t="n">
-        <v>149613</v>
+        <v>181101</v>
       </c>
       <c r="C158" t="s">
         <v>1316</v>
@@ -16516,7 +16516,7 @@
         <v>25214</v>
       </c>
       <c r="B159" t="n">
-        <v>149614</v>
+        <v>181102</v>
       </c>
       <c r="C159" t="s">
         <v>1326</v>
@@ -16587,7 +16587,7 @@
         <v>25214</v>
       </c>
       <c r="B160" t="n">
-        <v>149615</v>
+        <v>181103</v>
       </c>
       <c r="C160" t="s">
         <v>1336</v>
@@ -16658,7 +16658,7 @@
         <v>25214</v>
       </c>
       <c r="B161" t="n">
-        <v>149616</v>
+        <v>181104</v>
       </c>
       <c r="C161" t="s">
         <v>1343</v>
@@ -16729,7 +16729,7 @@
         <v>25214</v>
       </c>
       <c r="B162" t="n">
-        <v>149617</v>
+        <v>181105</v>
       </c>
       <c r="C162" t="s">
         <v>1352</v>
@@ -16804,7 +16804,7 @@
         <v>25214</v>
       </c>
       <c r="B163" t="n">
-        <v>149618</v>
+        <v>181106</v>
       </c>
       <c r="C163" t="s">
         <v>1360</v>
@@ -16879,7 +16879,7 @@
         <v>25214</v>
       </c>
       <c r="B164" t="n">
-        <v>149619</v>
+        <v>181107</v>
       </c>
       <c r="C164" t="s">
         <v>1368</v>
@@ -16954,7 +16954,7 @@
         <v>25214</v>
       </c>
       <c r="B165" t="n">
-        <v>149620</v>
+        <v>181108</v>
       </c>
       <c r="C165" t="s">
         <v>1378</v>
@@ -17029,7 +17029,7 @@
         <v>25214</v>
       </c>
       <c r="B166" t="n">
-        <v>149621</v>
+        <v>181109</v>
       </c>
       <c r="C166" t="s">
         <v>1386</v>
@@ -17104,7 +17104,7 @@
         <v>25214</v>
       </c>
       <c r="B167" t="n">
-        <v>149622</v>
+        <v>181110</v>
       </c>
       <c r="C167" t="s">
         <v>1393</v>
@@ -17179,7 +17179,7 @@
         <v>25214</v>
       </c>
       <c r="B168" t="n">
-        <v>149623</v>
+        <v>181111</v>
       </c>
       <c r="C168" t="s">
         <v>1401</v>
@@ -17254,7 +17254,7 @@
         <v>25214</v>
       </c>
       <c r="B169" t="n">
-        <v>149624</v>
+        <v>181112</v>
       </c>
       <c r="C169" t="s">
         <v>1409</v>
@@ -17327,7 +17327,7 @@
         <v>25214</v>
       </c>
       <c r="B170" t="n">
-        <v>149625</v>
+        <v>181113</v>
       </c>
       <c r="C170" t="s">
         <v>1418</v>
@@ -17402,7 +17402,7 @@
         <v>25214</v>
       </c>
       <c r="B171" t="n">
-        <v>149626</v>
+        <v>181114</v>
       </c>
       <c r="C171" t="s">
         <v>1428</v>
@@ -17477,7 +17477,7 @@
         <v>25214</v>
       </c>
       <c r="B172" t="n">
-        <v>149627</v>
+        <v>181115</v>
       </c>
       <c r="C172" t="s">
         <v>1435</v>
@@ -17552,7 +17552,7 @@
         <v>25214</v>
       </c>
       <c r="B173" t="n">
-        <v>149628</v>
+        <v>181116</v>
       </c>
       <c r="C173" t="s">
         <v>1445</v>
@@ -17627,7 +17627,7 @@
         <v>25214</v>
       </c>
       <c r="B174" t="n">
-        <v>149629</v>
+        <v>181117</v>
       </c>
       <c r="C174" t="s">
         <v>1455</v>
@@ -17777,7 +17777,7 @@
         <v>25214</v>
       </c>
       <c r="B176" t="n">
-        <v>149630</v>
+        <v>181118</v>
       </c>
       <c r="C176" t="s">
         <v>1474</v>
@@ -17852,7 +17852,7 @@
         <v>25214</v>
       </c>
       <c r="B177" t="n">
-        <v>149631</v>
+        <v>181119</v>
       </c>
       <c r="C177" t="s">
         <v>1482</v>
@@ -17927,7 +17927,7 @@
         <v>25214</v>
       </c>
       <c r="B178" t="n">
-        <v>149632</v>
+        <v>181120</v>
       </c>
       <c r="C178" t="s">
         <v>1492</v>
@@ -18002,7 +18002,7 @@
         <v>25214</v>
       </c>
       <c r="B179" t="n">
-        <v>149633</v>
+        <v>181121</v>
       </c>
       <c r="C179" t="s">
         <v>1502</v>
@@ -18077,7 +18077,7 @@
         <v>25214</v>
       </c>
       <c r="B180" t="n">
-        <v>149634</v>
+        <v>181122</v>
       </c>
       <c r="C180" t="s">
         <v>1510</v>
@@ -18148,7 +18148,7 @@
         <v>25214</v>
       </c>
       <c r="B181" t="n">
-        <v>149635</v>
+        <v>181123</v>
       </c>
       <c r="C181" t="s">
         <v>1518</v>
@@ -18219,7 +18219,7 @@
         <v>25214</v>
       </c>
       <c r="B182" t="n">
-        <v>149636</v>
+        <v>181124</v>
       </c>
       <c r="C182" t="s">
         <v>1524</v>
@@ -18361,7 +18361,7 @@
         <v>25214</v>
       </c>
       <c r="B184" t="n">
-        <v>149637</v>
+        <v>181125</v>
       </c>
       <c r="C184" t="s">
         <v>1536</v>
@@ -18432,7 +18432,7 @@
         <v>25214</v>
       </c>
       <c r="B185" t="n">
-        <v>149638</v>
+        <v>181126</v>
       </c>
       <c r="C185" t="s">
         <v>1542</v>
@@ -18503,7 +18503,7 @@
         <v>25214</v>
       </c>
       <c r="B186" t="n">
-        <v>149639</v>
+        <v>181127</v>
       </c>
       <c r="C186" t="s">
         <v>1548</v>
@@ -18574,7 +18574,7 @@
         <v>25214</v>
       </c>
       <c r="B187" t="n">
-        <v>149640</v>
+        <v>181128</v>
       </c>
       <c r="C187" t="s">
         <v>1554</v>
@@ -18649,7 +18649,7 @@
         <v>25214</v>
       </c>
       <c r="B188" t="n">
-        <v>149641</v>
+        <v>181129</v>
       </c>
       <c r="C188" t="s">
         <v>1564</v>
@@ -18720,7 +18720,7 @@
         <v>25214</v>
       </c>
       <c r="B189" t="n">
-        <v>149642</v>
+        <v>181130</v>
       </c>
       <c r="C189" t="s">
         <v>1571</v>
@@ -18791,7 +18791,7 @@
         <v>25214</v>
       </c>
       <c r="B190" t="n">
-        <v>149643</v>
+        <v>181131</v>
       </c>
       <c r="C190" t="s">
         <v>1579</v>
@@ -18848,7 +18848,7 @@
         <v>25214</v>
       </c>
       <c r="B191" t="n">
-        <v>149644</v>
+        <v>181132</v>
       </c>
       <c r="C191" t="s">
         <v>1586</v>
@@ -18919,7 +18919,7 @@
         <v>25214</v>
       </c>
       <c r="B192" t="n">
-        <v>149645</v>
+        <v>181133</v>
       </c>
       <c r="C192" t="s">
         <v>1594</v>
@@ -18990,7 +18990,7 @@
         <v>25214</v>
       </c>
       <c r="B193" t="n">
-        <v>149646</v>
+        <v>181134</v>
       </c>
       <c r="C193" t="s">
         <v>1602</v>
@@ -19132,7 +19132,7 @@
         <v>25214</v>
       </c>
       <c r="B195" t="n">
-        <v>149647</v>
+        <v>181135</v>
       </c>
       <c r="C195" t="s">
         <v>1617</v>
@@ -19278,7 +19278,7 @@
         <v>25214</v>
       </c>
       <c r="B197" t="n">
-        <v>149648</v>
+        <v>181136</v>
       </c>
       <c r="C197" t="s">
         <v>1634</v>
@@ -19400,7 +19400,7 @@
         <v>25214</v>
       </c>
       <c r="B199" t="n">
-        <v>149649</v>
+        <v>181137</v>
       </c>
       <c r="C199" t="s">
         <v>1647</v>
